--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="H2">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="I2">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="J2">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.30472066666667</v>
+        <v>55.60163533333334</v>
       </c>
       <c r="N2">
-        <v>177.914162</v>
+        <v>166.804906</v>
       </c>
       <c r="O2">
-        <v>0.3117418698225773</v>
+        <v>0.2980784899567677</v>
       </c>
       <c r="P2">
-        <v>0.3117418698225772</v>
+        <v>0.2980784899567676</v>
       </c>
       <c r="Q2">
-        <v>698.5956135392561</v>
+        <v>629.3666422830555</v>
       </c>
       <c r="R2">
-        <v>6287.360521853304</v>
+        <v>5664.299780547499</v>
       </c>
       <c r="S2">
-        <v>0.03206102839883374</v>
+        <v>0.02957619489538602</v>
       </c>
       <c r="T2">
-        <v>0.03206102839883374</v>
+        <v>0.02957619489538602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="H3">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="I3">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="J3">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>299.9118120000001</v>
       </c>
       <c r="O3">
-        <v>0.5255066151212701</v>
+        <v>0.5359390331190738</v>
       </c>
       <c r="P3">
-        <v>0.5255066151212699</v>
+        <v>0.5359390331190738</v>
       </c>
       <c r="Q3">
-        <v>1177.630122057456</v>
+        <v>1131.588360473444</v>
       </c>
       <c r="R3">
-        <v>10598.67109851711</v>
+        <v>10184.295244261</v>
       </c>
       <c r="S3">
-        <v>0.05404561960434429</v>
+        <v>0.0531773939738941</v>
       </c>
       <c r="T3">
-        <v>0.05404561960434429</v>
+        <v>0.0531773939738941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="H4">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="I4">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="J4">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.96129866666667</v>
+        <v>30.96129866666666</v>
       </c>
       <c r="N4">
-        <v>92.88389600000001</v>
+        <v>92.88389599999999</v>
       </c>
       <c r="O4">
-        <v>0.1627515150561528</v>
+        <v>0.1659824769241586</v>
       </c>
       <c r="P4">
-        <v>0.1627515150561528</v>
+        <v>0.1659824769241586</v>
       </c>
       <c r="Q4">
-        <v>364.716791426848</v>
+        <v>350.4574724420187</v>
       </c>
       <c r="R4">
-        <v>3282.451122841632</v>
+        <v>3154.117251978168</v>
       </c>
       <c r="S4">
-        <v>0.01673814604736367</v>
+        <v>0.0164692530730407</v>
       </c>
       <c r="T4">
-        <v>0.01673814604736367</v>
+        <v>0.0164692530730407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>131.524056</v>
       </c>
       <c r="I5">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="J5">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.30472066666667</v>
+        <v>55.60163533333334</v>
       </c>
       <c r="N5">
-        <v>177.914162</v>
+        <v>166.804906</v>
       </c>
       <c r="O5">
-        <v>0.3117418698225773</v>
+        <v>0.2980784899567677</v>
       </c>
       <c r="P5">
-        <v>0.3117418698225772</v>
+        <v>0.2980784899567676</v>
       </c>
       <c r="Q5">
-        <v>2599.999134009008</v>
+        <v>2437.650866424304</v>
       </c>
       <c r="R5">
-        <v>23399.99220608107</v>
+        <v>21938.85779781874</v>
       </c>
       <c r="S5">
-        <v>0.1193231741752438</v>
+        <v>0.1145539535599453</v>
       </c>
       <c r="T5">
-        <v>0.1193231741752438</v>
+        <v>0.1145539535599453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>131.524056</v>
       </c>
       <c r="I6">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="J6">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>299.9118120000001</v>
       </c>
       <c r="O6">
-        <v>0.5255066151212701</v>
+        <v>0.5359390331190738</v>
       </c>
       <c r="P6">
-        <v>0.5255066151212699</v>
+        <v>0.5359390331190738</v>
       </c>
       <c r="Q6">
         <v>4382.846439616609</v>
@@ -818,10 +818,10 @@
         <v>39445.61795654948</v>
       </c>
       <c r="S6">
-        <v>0.2011443551103536</v>
+        <v>0.2059656673642862</v>
       </c>
       <c r="T6">
-        <v>0.2011443551103536</v>
+        <v>0.2059656673642862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>131.524056</v>
       </c>
       <c r="I7">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="J7">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.96129866666667</v>
+        <v>30.96129866666666</v>
       </c>
       <c r="N7">
-        <v>92.88389600000001</v>
+        <v>92.88389599999999</v>
       </c>
       <c r="O7">
-        <v>0.1627515150561528</v>
+        <v>0.1659824769241586</v>
       </c>
       <c r="P7">
-        <v>0.1627515150561528</v>
+        <v>0.1659824769241586</v>
       </c>
       <c r="Q7">
         <v>1357.385193222464</v>
@@ -880,10 +880,10 @@
         <v>12216.46673900218</v>
       </c>
       <c r="S7">
-        <v>0.06229521683879909</v>
+        <v>0.06378839666053218</v>
       </c>
       <c r="T7">
-        <v>0.06229521683879908</v>
+        <v>0.06378839666053218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>176.754356</v>
       </c>
       <c r="I8">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="J8">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.30472066666667</v>
+        <v>55.60163533333334</v>
       </c>
       <c r="N8">
-        <v>177.914162</v>
+        <v>166.804906</v>
       </c>
       <c r="O8">
-        <v>0.3117418698225773</v>
+        <v>0.2980784899567677</v>
       </c>
       <c r="P8">
-        <v>0.3117418698225772</v>
+        <v>0.2980784899567676</v>
       </c>
       <c r="Q8">
-        <v>3494.122569732187</v>
+        <v>3275.943748630061</v>
       </c>
       <c r="R8">
-        <v>31447.10312758968</v>
+        <v>29483.49373767055</v>
       </c>
       <c r="S8">
-        <v>0.1603576672484998</v>
+        <v>0.1539483415014364</v>
       </c>
       <c r="T8">
-        <v>0.1603576672484998</v>
+        <v>0.1539483415014363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>176.754356</v>
       </c>
       <c r="I9">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="J9">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>299.9118120000001</v>
       </c>
       <c r="O9">
-        <v>0.5255066151212701</v>
+        <v>0.5359390331190738</v>
       </c>
       <c r="P9">
-        <v>0.5255066151212699</v>
+        <v>0.5359390331190738</v>
       </c>
       <c r="Q9">
         <v>5890.079909650344</v>
@@ -1004,10 +1004,10 @@
         <v>53010.71918685309</v>
       </c>
       <c r="S9">
-        <v>0.2703166404065722</v>
+        <v>0.2767959717808934</v>
       </c>
       <c r="T9">
-        <v>0.2703166404065722</v>
+        <v>0.2767959717808934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>176.754356</v>
       </c>
       <c r="I10">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="J10">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.96129866666667</v>
+        <v>30.96129866666666</v>
       </c>
       <c r="N10">
-        <v>92.88389600000001</v>
+        <v>92.88389599999999</v>
       </c>
       <c r="O10">
-        <v>0.1627515150561528</v>
+        <v>0.1659824769241586</v>
       </c>
       <c r="P10">
-        <v>0.1627515150561528</v>
+        <v>0.1659824769241586</v>
       </c>
       <c r="Q10">
-        <v>1824.181468916776</v>
+        <v>1824.181468916775</v>
       </c>
       <c r="R10">
         <v>16417.63322025098</v>
       </c>
       <c r="S10">
-        <v>0.08371815216999003</v>
+        <v>0.08572482719058572</v>
       </c>
       <c r="T10">
-        <v>0.08371815216999003</v>
+        <v>0.08572482719058572</v>
       </c>
     </row>
   </sheetData>
